--- a/earlywarning-pom/Document/test/CORPORATE/test_nuovo_DdM_28072017.xlsx
+++ b/earlywarning-pom/Document/test/CORPORATE/test_nuovo_DdM_28072017.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilaria.cutano\Desktop\ISP\git\client-intesa\client-intesa\earlywarning-pom\Document\test\CORPORATE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tools\progetto Intesa\client-intesa\earlywarning-pom\Document\test\CORPORATE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="132">
   <si>
     <t>BR170 - Distance to default S30</t>
   </si>
@@ -384,12 +384,51 @@
   </si>
   <si>
     <t>VALORE ATTESO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ba2       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ba3       </t>
+  </si>
+  <si>
+    <t>\</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baa1      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C         </t>
+  </si>
+  <si>
+    <t>Ba2</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>Baa3</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ca        </t>
+  </si>
+  <si>
+    <t>Aaa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ba1       </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -530,7 +569,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -641,9 +680,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -961,18 +1003,18 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.8984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.8984375" customWidth="1"/>
-    <col min="5" max="6" width="18.59765625" customWidth="1"/>
-    <col min="7" max="7" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.875" customWidth="1"/>
+    <col min="5" max="6" width="18.625" customWidth="1"/>
+    <col min="7" max="7" width="9.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>55</v>
       </c>
@@ -984,7 +1026,7 @@
       </c>
       <c r="F1" s="47"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>54</v>
       </c>
@@ -995,7 +1037,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>54</v>
       </c>
@@ -1006,7 +1048,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>54</v>
       </c>
@@ -1017,7 +1059,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>54</v>
       </c>
@@ -1028,7 +1070,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>54</v>
       </c>
@@ -1039,7 +1081,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>54</v>
       </c>
@@ -1050,7 +1092,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>54</v>
       </c>
@@ -1061,7 +1103,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>54</v>
       </c>
@@ -1072,7 +1114,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>54</v>
       </c>
@@ -1083,7 +1125,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>54</v>
       </c>
@@ -1094,7 +1136,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>54</v>
       </c>
@@ -1105,7 +1147,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>54</v>
       </c>
@@ -1116,7 +1158,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>54</v>
       </c>
@@ -1127,7 +1169,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>54</v>
       </c>
@@ -1138,7 +1180,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>54</v>
       </c>
@@ -1149,7 +1191,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>54</v>
       </c>
@@ -1160,12 +1202,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
       <c r="B18" s="20"/>
       <c r="C18" s="21"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="1"/>
       <c r="C19" s="22" t="s">
@@ -1175,7 +1217,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C20" s="3" t="s">
         <v>38</v>
       </c>
@@ -1201,7 +1243,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>35</v>
       </c>
@@ -1233,7 +1275,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>35</v>
       </c>
@@ -1265,7 +1307,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>35</v>
       </c>
@@ -1297,10 +1339,10 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B24" s="13"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>37</v>
       </c>
@@ -1332,13 +1374,13 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>58</v>
       </c>
@@ -1346,7 +1388,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>60</v>
       </c>
@@ -1354,7 +1396,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>61</v>
       </c>
@@ -1362,7 +1404,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>62</v>
       </c>
@@ -1370,11 +1412,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
       <c r="B6" s="17"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>63</v>
       </c>
@@ -1382,7 +1424,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>64</v>
       </c>
@@ -1390,7 +1432,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>65</v>
       </c>
@@ -1398,7 +1440,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>66</v>
       </c>
@@ -1406,7 +1448,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>67</v>
       </c>
@@ -1421,29 +1463,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N64"/>
+  <dimension ref="B1:P64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="H33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomRight" activeCell="M60" sqref="L59:M60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.19921875" customWidth="1"/>
-    <col min="2" max="2" width="13.69921875" customWidth="1"/>
-    <col min="4" max="4" width="14.3984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.69921875" style="23"/>
+    <col min="1" max="1" width="4.25" customWidth="1"/>
+    <col min="2" max="2" width="13.75" customWidth="1"/>
+    <col min="4" max="4" width="14.375" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.75" style="23"/>
     <col min="6" max="6" width="56.5" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="56" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="66.69921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.796875" customWidth="1"/>
-    <col min="10" max="12" width="12.59765625" customWidth="1"/>
+    <col min="8" max="8" width="56.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.75" customWidth="1"/>
+    <col min="10" max="12" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="44" t="s">
         <v>116</v>
       </c>
@@ -1484,7 +1526,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="2:14" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:14" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="45">
         <v>17785168</v>
       </c>
@@ -1500,7 +1542,9 @@
       <c r="F2" s="8"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
+      <c r="I2" s="27">
+        <v>0.34339785</v>
+      </c>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
@@ -1511,7 +1555,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="2:14" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:14" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="45">
         <v>48157162</v>
       </c>
@@ -1527,7 +1571,9 @@
       <c r="F3" s="8"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="I3" s="27">
+        <v>0.967481023133</v>
+      </c>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
@@ -1538,7 +1584,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="2:14" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="45">
         <v>17824972</v>
       </c>
@@ -1554,7 +1600,9 @@
       <c r="F4" s="8"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
+      <c r="I4" s="25">
+        <v>2.0115282748999999</v>
+      </c>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
@@ -1565,7 +1613,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:14" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="45">
         <v>48157162</v>
       </c>
@@ -1581,7 +1629,9 @@
       <c r="F5" s="8"/>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
+      <c r="I5" s="27">
+        <v>0.967481023133</v>
+      </c>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
@@ -1592,7 +1642,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="45">
         <v>24596926</v>
       </c>
@@ -1608,7 +1658,9 @@
       <c r="F6" s="8"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
+      <c r="I6" s="25">
+        <v>2.6592996944</v>
+      </c>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
@@ -1619,7 +1671,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="45">
         <v>35993721</v>
       </c>
@@ -1635,7 +1687,9 @@
       <c r="F7" s="8"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
+      <c r="I7" s="27">
+        <v>0.71354871696699995</v>
+      </c>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
@@ -1646,7 +1700,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="45">
         <v>24596926</v>
       </c>
@@ -1662,7 +1716,9 @@
       <c r="F8" s="8"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
+      <c r="I8" s="25">
+        <v>2.6592996944</v>
+      </c>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
@@ -1673,7 +1729,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="45">
         <v>54172736</v>
       </c>
@@ -1689,7 +1745,9 @@
       <c r="F9" s="8"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
+      <c r="I9" s="25">
+        <v>4.2055617217670003</v>
+      </c>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
@@ -1700,7 +1758,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="45">
         <v>70525969</v>
       </c>
@@ -1716,7 +1774,9 @@
       <c r="F10" s="8"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
+      <c r="I10" s="25">
+        <v>5.1261168302669997</v>
+      </c>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
@@ -1727,7 +1787,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="45">
         <v>48157162</v>
       </c>
@@ -1743,7 +1803,9 @@
       <c r="F11" s="8"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
+      <c r="I11" s="27">
+        <v>0.967481023133</v>
+      </c>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
@@ -1754,7 +1816,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="45">
         <v>17824972</v>
       </c>
@@ -1770,7 +1832,9 @@
       <c r="F12" s="8"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
+      <c r="I12" s="25">
+        <v>2.0115282748999999</v>
+      </c>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
@@ -1781,7 +1845,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="45">
         <v>48523797</v>
       </c>
@@ -1797,7 +1861,9 @@
       <c r="F13" s="8"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
+      <c r="I13" s="25">
+        <v>5.2526539540670001</v>
+      </c>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
@@ -1808,7 +1874,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="45">
         <v>48215089</v>
       </c>
@@ -1824,7 +1890,9 @@
       <c r="F14" s="8"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
+      <c r="I14" s="25">
+        <v>5.2978484129999996</v>
+      </c>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
@@ -1835,7 +1903,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="45">
         <v>70525969</v>
       </c>
@@ -1851,7 +1919,9 @@
       <c r="F15" s="8"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
+      <c r="I15" s="25">
+        <v>5.1261168302669997</v>
+      </c>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
@@ -1862,7 +1932,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="45">
         <v>24596926</v>
       </c>
@@ -1878,7 +1948,9 @@
       <c r="F16" s="8"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
+      <c r="I16" s="25">
+        <v>2.6592996944</v>
+      </c>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
@@ -1889,8 +1961,8 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B17" s="45">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B17" s="48">
         <v>87562801</v>
       </c>
       <c r="C17" s="27">
@@ -1908,7 +1980,9 @@
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
+      <c r="L17" s="10" t="s">
+        <v>123</v>
+      </c>
       <c r="M17" s="26" t="s">
         <v>77</v>
       </c>
@@ -1916,8 +1990,8 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B18" s="45">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18" s="48">
         <v>70525969</v>
       </c>
       <c r="C18" s="27">
@@ -1935,7 +2009,9 @@
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
+      <c r="L18" s="10" t="s">
+        <v>120</v>
+      </c>
       <c r="M18" s="26" t="s">
         <v>78</v>
       </c>
@@ -1943,8 +2019,8 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B19" s="45">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B19" s="48">
         <v>73808754</v>
       </c>
       <c r="C19" s="27">
@@ -1962,7 +2038,9 @@
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
+      <c r="L19" s="10" t="s">
+        <v>119</v>
+      </c>
       <c r="M19" s="26" t="s">
         <v>78</v>
       </c>
@@ -1970,8 +2048,8 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B20" s="45">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B20" s="48">
         <v>59436670</v>
       </c>
       <c r="C20" s="27">
@@ -1989,7 +2067,9 @@
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
+      <c r="L20" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="M20" s="26" t="s">
         <v>78</v>
       </c>
@@ -1997,8 +2077,8 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B21" s="45">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B21" s="48">
         <v>70525969</v>
       </c>
       <c r="C21" s="25">
@@ -2016,7 +2096,9 @@
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
+      <c r="L21" s="10" t="s">
+        <v>120</v>
+      </c>
       <c r="M21" s="26" t="s">
         <v>77</v>
       </c>
@@ -2024,8 +2106,8 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B22" s="45">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B22" s="48">
         <v>87562801</v>
       </c>
       <c r="C22" s="25">
@@ -2043,7 +2125,9 @@
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
+      <c r="L22" s="10" t="s">
+        <v>123</v>
+      </c>
       <c r="M22" s="26" t="s">
         <v>78</v>
       </c>
@@ -2051,8 +2135,8 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B23" s="45">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B23" s="48">
         <v>73808754</v>
       </c>
       <c r="C23" s="25">
@@ -2070,7 +2154,9 @@
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
+      <c r="L23" s="10" t="s">
+        <v>119</v>
+      </c>
       <c r="M23" s="26" t="s">
         <v>78</v>
       </c>
@@ -2078,8 +2164,8 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B24" s="45">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B24" s="48">
         <v>59436670</v>
       </c>
       <c r="C24" s="25">
@@ -2097,7 +2183,9 @@
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
+      <c r="L24" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="M24" s="26" t="s">
         <v>78</v>
       </c>
@@ -2105,8 +2193,8 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B25" s="45">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B25" s="48">
         <v>73808754</v>
       </c>
       <c r="C25" s="27">
@@ -2124,7 +2212,9 @@
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
+      <c r="L25" s="10" t="s">
+        <v>119</v>
+      </c>
       <c r="M25" s="26" t="s">
         <v>77</v>
       </c>
@@ -2132,8 +2222,8 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B26" s="45">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B26" s="48">
         <v>87562801</v>
       </c>
       <c r="C26" s="27">
@@ -2151,16 +2241,21 @@
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
+      <c r="L26" s="10" t="s">
+        <v>123</v>
+      </c>
       <c r="M26" s="26" t="s">
         <v>78</v>
       </c>
       <c r="N26" s="10" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B27" s="45">
+      <c r="P26" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B27" s="48">
         <v>70525969</v>
       </c>
       <c r="C27" s="27">
@@ -2178,7 +2273,9 @@
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
+      <c r="L27" s="10" t="s">
+        <v>120</v>
+      </c>
       <c r="M27" s="26" t="s">
         <v>78</v>
       </c>
@@ -2186,8 +2283,8 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B28" s="45">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B28" s="48">
         <v>59436670</v>
       </c>
       <c r="C28" s="27">
@@ -2205,7 +2302,9 @@
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
+      <c r="L28" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="M28" s="26" t="s">
         <v>78</v>
       </c>
@@ -2213,8 +2312,8 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B29" s="45">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B29" s="48">
         <v>59436670</v>
       </c>
       <c r="C29" s="27">
@@ -2232,7 +2331,9 @@
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
       <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
+      <c r="L29" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="M29" s="26" t="s">
         <v>77</v>
       </c>
@@ -2240,8 +2341,8 @@
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B30" s="45">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B30" s="48">
         <v>87562801</v>
       </c>
       <c r="C30" s="27">
@@ -2259,7 +2360,9 @@
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
       <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
+      <c r="L30" s="10" t="s">
+        <v>123</v>
+      </c>
       <c r="M30" s="26" t="s">
         <v>78</v>
       </c>
@@ -2267,8 +2370,8 @@
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B31" s="45">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B31" s="48">
         <v>70525969</v>
       </c>
       <c r="C31" s="27">
@@ -2286,7 +2389,9 @@
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
+      <c r="L31" s="10" t="s">
+        <v>120</v>
+      </c>
       <c r="M31" s="26" t="s">
         <v>78</v>
       </c>
@@ -2294,8 +2399,8 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B32" s="45">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B32" s="48">
         <v>73808754</v>
       </c>
       <c r="C32" s="27">
@@ -2313,7 +2418,9 @@
       <c r="I32" s="10"/>
       <c r="J32" s="10"/>
       <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
+      <c r="L32" s="10" t="s">
+        <v>119</v>
+      </c>
       <c r="M32" s="26" t="s">
         <v>78</v>
       </c>
@@ -2321,7 +2428,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="45">
         <v>58954695</v>
       </c>
@@ -2338,9 +2445,11 @@
       </c>
       <c r="H33" s="10"/>
       <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
+      <c r="J33" s="10" t="s">
+        <v>125</v>
+      </c>
       <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
+      <c r="L33" s="28"/>
       <c r="M33" s="26" t="s">
         <v>77</v>
       </c>
@@ -2348,7 +2457,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="45">
         <v>18011331</v>
       </c>
@@ -2365,9 +2474,11 @@
       </c>
       <c r="H34" s="10"/>
       <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
+      <c r="J34" s="10" t="s">
+        <v>127</v>
+      </c>
       <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
+      <c r="L34" s="28"/>
       <c r="M34" s="26" t="s">
         <v>78</v>
       </c>
@@ -2375,7 +2486,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="45">
         <v>73808754</v>
       </c>
@@ -2392,9 +2503,11 @@
       </c>
       <c r="H35" s="10"/>
       <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
+      <c r="J35" s="10" t="s">
+        <v>124</v>
+      </c>
       <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
+      <c r="L35" s="28"/>
       <c r="M35" s="26" t="s">
         <v>78</v>
       </c>
@@ -2402,7 +2515,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="45">
         <v>67299565</v>
       </c>
@@ -2419,9 +2532,11 @@
       </c>
       <c r="H36" s="10"/>
       <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
+      <c r="J36" s="10" t="s">
+        <v>126</v>
+      </c>
       <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
+      <c r="L36" s="28"/>
       <c r="M36" s="26" t="s">
         <v>78</v>
       </c>
@@ -2429,7 +2544,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="45">
         <v>18011331</v>
       </c>
@@ -2446,9 +2561,11 @@
       </c>
       <c r="H37" s="10"/>
       <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
+      <c r="J37" s="10" t="s">
+        <v>127</v>
+      </c>
       <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
+      <c r="L37" s="28"/>
       <c r="M37" s="26" t="s">
         <v>77</v>
       </c>
@@ -2456,7 +2573,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="45">
         <v>58954695</v>
       </c>
@@ -2473,9 +2590,11 @@
       </c>
       <c r="H38" s="10"/>
       <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
+      <c r="J38" s="10" t="s">
+        <v>125</v>
+      </c>
       <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
+      <c r="L38" s="28"/>
       <c r="M38" s="26" t="s">
         <v>78</v>
       </c>
@@ -2483,7 +2602,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="45">
         <v>73808754</v>
       </c>
@@ -2500,9 +2619,11 @@
       </c>
       <c r="H39" s="10"/>
       <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
+      <c r="J39" s="10" t="s">
+        <v>124</v>
+      </c>
       <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
+      <c r="L39" s="28"/>
       <c r="M39" s="26" t="s">
         <v>78</v>
       </c>
@@ -2510,7 +2631,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="45">
         <v>67299565</v>
       </c>
@@ -2527,9 +2648,11 @@
       </c>
       <c r="H40" s="10"/>
       <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
+      <c r="J40" s="10" t="s">
+        <v>126</v>
+      </c>
       <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
+      <c r="L40" s="28"/>
       <c r="M40" s="26" t="s">
         <v>78</v>
       </c>
@@ -2537,7 +2660,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="45">
         <v>73808754</v>
       </c>
@@ -2554,9 +2677,11 @@
       </c>
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
+      <c r="J41" s="10" t="s">
+        <v>124</v>
+      </c>
       <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
+      <c r="L41" s="28"/>
       <c r="M41" s="26" t="s">
         <v>77</v>
       </c>
@@ -2564,7 +2689,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="45">
         <v>58954695</v>
       </c>
@@ -2581,9 +2706,11 @@
       </c>
       <c r="H42" s="10"/>
       <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
+      <c r="J42" s="10" t="s">
+        <v>125</v>
+      </c>
       <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
+      <c r="L42" s="28"/>
       <c r="M42" s="26" t="s">
         <v>78</v>
       </c>
@@ -2591,7 +2718,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="45">
         <v>18011331</v>
       </c>
@@ -2608,9 +2735,11 @@
       </c>
       <c r="H43" s="10"/>
       <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
+      <c r="J43" s="10" t="s">
+        <v>127</v>
+      </c>
       <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
+      <c r="L43" s="28"/>
       <c r="M43" s="26" t="s">
         <v>78</v>
       </c>
@@ -2618,7 +2747,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="45">
         <v>67299565</v>
       </c>
@@ -2635,9 +2764,11 @@
       </c>
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
+      <c r="J44" s="10" t="s">
+        <v>126</v>
+      </c>
       <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
+      <c r="L44" s="28"/>
       <c r="M44" s="26" t="s">
         <v>78</v>
       </c>
@@ -2645,7 +2776,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="45">
         <v>67299565</v>
       </c>
@@ -2662,9 +2793,11 @@
       </c>
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
+      <c r="J45" s="10" t="s">
+        <v>126</v>
+      </c>
       <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
+      <c r="L45" s="28"/>
       <c r="M45" s="26" t="s">
         <v>77</v>
       </c>
@@ -2672,7 +2805,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="45">
         <v>58954695</v>
       </c>
@@ -2689,9 +2822,11 @@
       </c>
       <c r="H46" s="10"/>
       <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
+      <c r="J46" s="10" t="s">
+        <v>125</v>
+      </c>
       <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
+      <c r="L46" s="28"/>
       <c r="M46" s="26" t="s">
         <v>78</v>
       </c>
@@ -2699,7 +2834,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="45">
         <v>18011331</v>
       </c>
@@ -2716,9 +2851,11 @@
       </c>
       <c r="H47" s="10"/>
       <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
+      <c r="J47" s="10" t="s">
+        <v>127</v>
+      </c>
       <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
+      <c r="L47" s="28"/>
       <c r="M47" s="26" t="s">
         <v>78</v>
       </c>
@@ -2726,7 +2863,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="45">
         <v>73808754</v>
       </c>
@@ -2743,9 +2880,11 @@
       </c>
       <c r="H48" s="10"/>
       <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
+      <c r="J48" s="10" t="s">
+        <v>124</v>
+      </c>
       <c r="K48" s="10"/>
-      <c r="L48" s="10"/>
+      <c r="L48" s="28"/>
       <c r="M48" s="26" t="s">
         <v>78</v>
       </c>
@@ -2753,7 +2892,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="45">
         <v>87562801</v>
       </c>
@@ -2771,8 +2910,10 @@
       </c>
       <c r="I49" s="31"/>
       <c r="J49" s="31"/>
-      <c r="K49" s="31"/>
-      <c r="L49" s="31"/>
+      <c r="K49" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="L49" s="28"/>
       <c r="M49" s="26" t="s">
         <v>77</v>
       </c>
@@ -2780,7 +2921,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="45">
         <v>18008537</v>
       </c>
@@ -2798,7 +2939,9 @@
       </c>
       <c r="I50" s="28"/>
       <c r="J50" s="28"/>
-      <c r="K50" s="28"/>
+      <c r="K50" s="28" t="s">
+        <v>128</v>
+      </c>
       <c r="L50" s="28"/>
       <c r="M50" s="26" t="s">
         <v>78</v>
@@ -2807,7 +2950,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="45">
         <v>84466026</v>
       </c>
@@ -2825,7 +2968,9 @@
       </c>
       <c r="I51" s="28"/>
       <c r="J51" s="28"/>
-      <c r="K51" s="28"/>
+      <c r="K51" s="28" t="s">
+        <v>131</v>
+      </c>
       <c r="L51" s="28"/>
       <c r="M51" s="26" t="s">
         <v>78</v>
@@ -2834,9 +2979,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="45">
-        <v>17051545</v>
+        <v>34345472</v>
       </c>
       <c r="C52" s="27">
         <v>182</v>
@@ -2852,7 +2997,9 @@
       </c>
       <c r="I52" s="28"/>
       <c r="J52" s="28"/>
-      <c r="K52" s="28"/>
+      <c r="K52" s="28" t="s">
+        <v>130</v>
+      </c>
       <c r="L52" s="28"/>
       <c r="M52" s="26" t="s">
         <v>78</v>
@@ -2861,7 +3008,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="45">
         <v>18008537</v>
       </c>
@@ -2879,7 +3026,9 @@
       </c>
       <c r="I53" s="28"/>
       <c r="J53" s="28"/>
-      <c r="K53" s="28"/>
+      <c r="K53" s="28" t="s">
+        <v>128</v>
+      </c>
       <c r="L53" s="28"/>
       <c r="M53" s="26" t="s">
         <v>77</v>
@@ -2888,7 +3037,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="45">
         <v>87562801</v>
       </c>
@@ -2906,7 +3055,9 @@
       </c>
       <c r="I54" s="31"/>
       <c r="J54" s="31"/>
-      <c r="K54" s="31"/>
+      <c r="K54" s="31" t="s">
+        <v>129</v>
+      </c>
       <c r="L54" s="31"/>
       <c r="M54" s="26" t="s">
         <v>78</v>
@@ -2915,7 +3066,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="45">
         <v>84466026</v>
       </c>
@@ -2933,7 +3084,9 @@
       </c>
       <c r="I55" s="28"/>
       <c r="J55" s="28"/>
-      <c r="K55" s="28"/>
+      <c r="K55" s="28" t="s">
+        <v>131</v>
+      </c>
       <c r="L55" s="28"/>
       <c r="M55" s="26" t="s">
         <v>78</v>
@@ -2942,9 +3095,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="45">
-        <v>17051545</v>
+        <v>34345472</v>
       </c>
       <c r="C56" s="27">
         <v>183</v>
@@ -2960,7 +3113,9 @@
       </c>
       <c r="I56" s="28"/>
       <c r="J56" s="28"/>
-      <c r="K56" s="28"/>
+      <c r="K56" s="28" t="s">
+        <v>130</v>
+      </c>
       <c r="L56" s="28"/>
       <c r="M56" s="26" t="s">
         <v>78</v>
@@ -2969,7 +3124,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="45">
         <v>84466026</v>
       </c>
@@ -2987,7 +3142,9 @@
       </c>
       <c r="I57" s="28"/>
       <c r="J57" s="28"/>
-      <c r="K57" s="28"/>
+      <c r="K57" s="28" t="s">
+        <v>131</v>
+      </c>
       <c r="L57" s="28"/>
       <c r="M57" s="26" t="s">
         <v>77</v>
@@ -2996,7 +3153,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="45">
         <v>87562801</v>
       </c>
@@ -3014,7 +3171,9 @@
       </c>
       <c r="I58" s="31"/>
       <c r="J58" s="31"/>
-      <c r="K58" s="31"/>
+      <c r="K58" s="31" t="s">
+        <v>129</v>
+      </c>
       <c r="L58" s="31"/>
       <c r="M58" s="26" t="s">
         <v>78</v>
@@ -3023,7 +3182,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="45">
         <v>18008537</v>
       </c>
@@ -3041,7 +3200,9 @@
       </c>
       <c r="I59" s="28"/>
       <c r="J59" s="28"/>
-      <c r="K59" s="28"/>
+      <c r="K59" s="28" t="s">
+        <v>128</v>
+      </c>
       <c r="L59" s="28"/>
       <c r="M59" s="26" t="s">
         <v>78</v>
@@ -3050,9 +3211,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="45">
-        <v>17051545</v>
+        <v>34345472</v>
       </c>
       <c r="C60" s="27">
         <v>184</v>
@@ -3068,7 +3229,9 @@
       </c>
       <c r="I60" s="28"/>
       <c r="J60" s="28"/>
-      <c r="K60" s="28"/>
+      <c r="K60" s="28" t="s">
+        <v>130</v>
+      </c>
       <c r="L60" s="28"/>
       <c r="M60" s="26" t="s">
         <v>78</v>
@@ -3077,9 +3240,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="45">
-        <v>17051545</v>
+        <v>34345472</v>
       </c>
       <c r="C61" s="27">
         <v>185</v>
@@ -3095,7 +3258,9 @@
       </c>
       <c r="I61" s="28"/>
       <c r="J61" s="28"/>
-      <c r="K61" s="28"/>
+      <c r="K61" s="28" t="s">
+        <v>130</v>
+      </c>
       <c r="L61" s="28"/>
       <c r="M61" s="26" t="s">
         <v>77</v>
@@ -3104,7 +3269,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="45">
         <v>87562801</v>
       </c>
@@ -3122,7 +3287,9 @@
       </c>
       <c r="I62" s="31"/>
       <c r="J62" s="31"/>
-      <c r="K62" s="31"/>
+      <c r="K62" s="31" t="s">
+        <v>129</v>
+      </c>
       <c r="L62" s="31"/>
       <c r="M62" s="26" t="s">
         <v>78</v>
@@ -3131,7 +3298,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="45">
         <v>18008537</v>
       </c>
@@ -3149,7 +3316,9 @@
       </c>
       <c r="I63" s="28"/>
       <c r="J63" s="28"/>
-      <c r="K63" s="28"/>
+      <c r="K63" s="28" t="s">
+        <v>128</v>
+      </c>
       <c r="L63" s="28"/>
       <c r="M63" s="26" t="s">
         <v>78</v>
@@ -3158,7 +3327,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="45">
         <v>84466026</v>
       </c>
@@ -3176,7 +3345,9 @@
       </c>
       <c r="I64" s="28"/>
       <c r="J64" s="28"/>
-      <c r="K64" s="28"/>
+      <c r="K64" s="28" t="s">
+        <v>131</v>
+      </c>
       <c r="L64" s="28"/>
       <c r="M64" s="26" t="s">
         <v>78</v>
@@ -3201,17 +3372,17 @@
       <selection pane="bottomRight" activeCell="G41" sqref="G41:H41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.69921875" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" style="23" customWidth="1"/>
+    <col min="1" max="1" width="3.75" customWidth="1"/>
+    <col min="2" max="2" width="17.375" style="23" customWidth="1"/>
     <col min="3" max="3" width="26" style="23" customWidth="1"/>
-    <col min="4" max="4" width="10.59765625" style="23" customWidth="1"/>
-    <col min="5" max="20" width="9.19921875" style="23" customWidth="1"/>
-    <col min="22" max="22" width="8.796875" style="23"/>
+    <col min="4" max="4" width="10.625" style="23" customWidth="1"/>
+    <col min="5" max="20" width="9.25" style="23" customWidth="1"/>
+    <col min="22" max="22" width="8.75" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C1" s="22" t="s">
         <v>73</v>
       </c>
@@ -3264,7 +3435,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B2" s="24" t="s">
         <v>116</v>
       </c>
@@ -3329,7 +3500,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B3" s="25">
         <v>68658585</v>
       </c>
@@ -3394,7 +3565,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" s="25">
         <v>17785168</v>
       </c>
@@ -3459,7 +3630,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="25">
         <v>18011915</v>
       </c>
@@ -3524,7 +3695,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="25">
         <v>48157162</v>
       </c>
@@ -3589,7 +3760,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B7" s="25">
         <v>74631051</v>
       </c>
@@ -3654,7 +3825,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B8" s="25">
         <v>67536805</v>
       </c>
@@ -3719,7 +3890,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B9" s="25">
         <v>35924655</v>
       </c>
@@ -3784,7 +3955,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="25">
         <v>54247107</v>
       </c>
@@ -3849,7 +4020,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B11" s="25">
         <v>53805873</v>
       </c>
@@ -3914,7 +4085,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B12" s="25">
         <v>35924655</v>
       </c>
@@ -3979,7 +4150,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B13" s="25">
         <v>18001630</v>
       </c>
@@ -4044,7 +4215,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B14" s="25">
         <v>28414322</v>
       </c>
@@ -4109,7 +4280,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B15" s="25">
         <v>36054664</v>
       </c>
@@ -4174,7 +4345,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B16" s="25">
         <v>58954695</v>
       </c>
@@ -4239,7 +4410,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" s="25">
         <v>53805873</v>
       </c>
@@ -4304,7 +4475,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18" s="25">
         <v>17996707</v>
       </c>
@@ -4369,7 +4540,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19" s="25">
         <v>17985417</v>
       </c>
@@ -4434,7 +4605,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B20" s="25">
         <v>73810233</v>
       </c>
@@ -4499,7 +4670,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B21" s="25">
         <v>68640807</v>
       </c>
@@ -4564,7 +4735,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B22" s="25">
         <v>18011825</v>
       </c>
@@ -4629,7 +4800,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23" s="25">
         <v>49969769</v>
       </c>
@@ -4694,7 +4865,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C25" s="33" t="s">
         <v>87</v>
       </c>
@@ -4716,7 +4887,7 @@
       <c r="S25"/>
       <c r="T25"/>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B26" s="24" t="s">
         <v>116</v>
       </c>
@@ -4769,7 +4940,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B27" s="25">
         <v>52832541</v>
       </c>
@@ -4822,7 +4993,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B28" s="25">
         <v>74754023</v>
       </c>
@@ -4875,7 +5046,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B29" s="25">
         <v>49951845</v>
       </c>
@@ -4928,7 +5099,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B30" s="25">
         <v>18011279</v>
       </c>
@@ -4981,7 +5152,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B31" s="25">
         <v>18005540</v>
       </c>
@@ -5034,7 +5205,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B32" s="25">
         <v>48239421</v>
       </c>
@@ -5087,7 +5258,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B33" s="25">
         <v>67566239</v>
       </c>
@@ -5140,7 +5311,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B34" s="25">
         <v>68633431</v>
       </c>
@@ -5193,7 +5364,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B35" s="25">
         <v>24857039</v>
       </c>
@@ -5246,7 +5417,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B36" s="25">
         <v>18009632</v>
       </c>
@@ -5299,7 +5470,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B37" s="25">
         <v>67821881</v>
       </c>
@@ -5352,7 +5523,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B38" s="25">
         <v>36060393</v>
       </c>
@@ -5405,7 +5576,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C39" s="38"/>
       <c r="D39" s="37"/>
       <c r="E39" s="37"/>
@@ -5421,7 +5592,7 @@
       <c r="O39" s="37"/>
       <c r="P39" s="37"/>
     </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B41" s="24" t="s">
         <v>116</v>
       </c>
@@ -5444,7 +5615,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B42" s="34">
         <v>52832541</v>
       </c>
@@ -5467,7 +5638,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B43" s="34">
         <v>35993721</v>
       </c>
@@ -5488,7 +5659,7 @@
       </c>
       <c r="H43" s="10"/>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B44" s="43" t="s">
         <v>110</v>
       </c>
@@ -5511,7 +5682,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="34">
         <v>67871336</v>
       </c>
@@ -5534,7 +5705,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B46" s="34">
         <v>49847461</v>
       </c>
@@ -5557,7 +5728,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B47" s="34">
         <v>17996256</v>
       </c>
@@ -5580,7 +5751,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B48" s="25">
         <v>17956132</v>
       </c>
@@ -5603,7 +5774,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="25">
         <v>36034521</v>
       </c>
@@ -5626,7 +5797,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="25">
         <v>46919274</v>
       </c>
@@ -5649,7 +5820,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="25">
         <v>26855585</v>
       </c>
@@ -5672,7 +5843,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="25">
         <v>35133640</v>
       </c>
@@ -5695,7 +5866,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="25">
         <v>36054664</v>
       </c>
@@ -5718,7 +5889,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="25">
         <v>70525969</v>
       </c>
@@ -5741,7 +5912,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="25">
         <v>27586308</v>
       </c>
@@ -5764,7 +5935,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="1048546" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="1048546" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D1048546" s="32"/>
     </row>
   </sheetData>
